--- a/biology/Botanique/Licuala_ferruginea/Licuala_ferruginea.xlsx
+++ b/biology/Botanique/Licuala_ferruginea/Licuala_ferruginea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licuala ferruginea est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers) et du genre Licuala . On le trouve principalement  en Malaisie péninsulaire   [1],[2],[3], [4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licuala ferruginea est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers) et du genre Licuala . On le trouve principalement  en Malaisie péninsulaire    .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit palmier à tige courte[2], il produit des feuilles palmées circulaires profondément divisées avec 3 à 7 segments larges, il a entre 10 et 13 folioles[2]. La foliole centrale est la plus longue et peut atteindre jusqu'à un mètre de long[2]. Les fleurs ont des ovaires poilus[5], il a une petite inflorescence qui est curieusement couverte de poils couleur rouille. Les fruits sont roses lorsqu'ils sont jeunes et noirs à maturité [5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit palmier à tige courte, il produit des feuilles palmées circulaires profondément divisées avec 3 à 7 segments larges, il a entre 10 et 13 folioles. La foliole centrale est la plus longue et peut atteindre jusqu'à un mètre de long. Les fleurs ont des ovaires poilus, il a une petite inflorescence qui est curieusement couverte de poils couleur rouille. Les fruits sont roses lorsqu'ils sont jeunes et noirs à maturité .
 Son origine en zone USDA  10b (+1°C mini) ne permet pas sa culture en extérieur en métropole.
 </t>
         </is>
@@ -543,12 +557,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite scientifiquement pour la première fois par Odoardo Beccari en 1892, dans  J.D.Hooker, Fl. Brit. India 6: 432  [6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite scientifiquement pour la première fois par Odoardo Beccari en 1892, dans  J.D.Hooker, Fl. Brit. India 6: 432  .
 Etymologie
 Licuala: Nom générique qui procède de la latinisation du nom vernaculaire, leko wala, soi-disant utilisé pour Licuala spinosa en Makassar, Sulawesi. (J. Dransfield, N. Uhl, C. Asmussen, W.J. Baker, M. Harley and C. Lewis. 2008)
- ferruginea: Épithète Latin qui signifie " couleur rouille, la couleur du fer rouillé " en référence aux poils de couleur rouille sur les inflorescences[7].
+ ferruginea: Épithète Latin qui signifie " couleur rouille, la couleur du fer rouillé " en référence aux poils de couleur rouille sur les inflorescences.
 </t>
         </is>
       </c>
